--- a/data/trans_orig/P16A_2_R3-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A_2_R3-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65EE6618-E07F-40A5-B092-2DF64C4AAE5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4751961E-F657-4A60-B11B-16AF1F18C5FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BC232F09-43AE-4B98-AAF5-F74CD5619281}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{052A0C2B-F6B8-4079-8A3E-94D94904FACA}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="86">
   <si>
     <t>Población que ha consumido medicinas para el dolor en las dos últimas semanas en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>33,65%</t>
   </si>
   <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
   </si>
   <si>
     <t>59,55%</t>
   </si>
   <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>62,12%</t>
+    <t>56,84%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
   </si>
   <si>
     <t>49,37%</t>
   </si>
   <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
+    <t>47,06%</t>
+  </si>
+  <si>
+    <t>51,89%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>66,35%</t>
   </si>
   <si>
-    <t>62,51%</t>
-  </si>
-  <si>
-    <t>70,07%</t>
+    <t>62,69%</t>
+  </si>
+  <si>
+    <t>70,19%</t>
   </si>
   <si>
     <t>40,45%</t>
   </si>
   <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
   </si>
   <si>
     <t>50,63%</t>
   </si>
   <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>53,09%</t>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>52,94%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,49 @@
     <t>22,12%</t>
   </si>
   <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
   </si>
   <si>
     <t>37,21%</t>
   </si>
   <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
   </si>
   <si>
     <t>77,88%</t>
   </si>
   <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
   </si>
   <si>
     <t>62,79%</t>
   </si>
   <si>
-    <t>51,16%</t>
-  </si>
-  <si>
-    <t>66,66%</t>
-  </si>
-  <si>
-    <t>70,19%</t>
-  </si>
-  <si>
-    <t>63,21%</t>
-  </si>
-  <si>
-    <t>72,58%</t>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -194,109 +188,109 @@
     <t>19,12%</t>
   </si>
   <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
   </si>
   <si>
     <t>28,88%</t>
   </si>
   <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
   </si>
   <si>
     <t>24,15%</t>
   </si>
   <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
   </si>
   <si>
     <t>80,88%</t>
   </si>
   <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
+    <t>77,46%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
   </si>
   <si>
     <t>71,12%</t>
   </si>
   <si>
-    <t>67,9%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
   </si>
   <si>
     <t>75,85%</t>
   </si>
   <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
   </si>
   <si>
     <t>23,37%</t>
   </si>
   <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
   </si>
   <si>
     <t>40,56%</t>
   </si>
   <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>47,66%</t>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
   </si>
   <si>
     <t>32,47%</t>
   </si>
   <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
   </si>
   <si>
     <t>76,63%</t>
   </si>
   <si>
-    <t>74,97%</t>
-  </si>
-  <si>
-    <t>78,24%</t>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>78,4%</t>
   </si>
   <si>
     <t>59,44%</t>
   </si>
   <si>
-    <t>52,34%</t>
-  </si>
-  <si>
-    <t>61,91%</t>
+    <t>53,93%</t>
+  </si>
+  <si>
+    <t>61,67%</t>
   </si>
   <si>
     <t>67,53%</t>
   </si>
   <si>
-    <t>63,81%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -711,7 +705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7D91C73-F931-4F0A-BE9F-51A4D7629B50}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5CEEB75-50AB-4671-BEED-F0F0C5B5E772}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1020,13 +1014,13 @@
         <v>1315110</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1041,28 +1035,28 @@
         <v>1683867</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>1812</v>
       </c>
       <c r="I8" s="7">
-        <v>1412566</v>
+        <v>1412567</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>3309</v>
@@ -1071,13 +1065,13 @@
         <v>3096433</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1104,7 +1098,7 @@
         <v>2921</v>
       </c>
       <c r="I9" s="7">
-        <v>2249520</v>
+        <v>2249521</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1133,7 +1127,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1145,13 +1139,13 @@
         <v>128699</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>299</v>
@@ -1160,13 +1154,13 @@
         <v>206199</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>423</v>
@@ -1175,13 +1169,13 @@
         <v>334898</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1196,13 +1190,13 @@
         <v>544340</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>705</v>
@@ -1211,13 +1205,13 @@
         <v>507687</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1262</v>
@@ -1226,13 +1220,13 @@
         <v>1052028</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1300,13 +1294,13 @@
         <v>789130</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>2287</v>
@@ -1315,13 +1309,13 @@
         <v>1540935</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>3159</v>
@@ -1330,13 +1324,13 @@
         <v>2330064</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1348,16 +1342,16 @@
         <v>2492</v>
       </c>
       <c r="D14" s="7">
-        <v>2587565</v>
+        <v>2587564</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>3065</v>
@@ -1366,28 +1360,28 @@
         <v>2258425</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>5557</v>
       </c>
       <c r="N14" s="7">
-        <v>4845991</v>
+        <v>4845990</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1399,7 +1393,7 @@
         <v>3364</v>
       </c>
       <c r="D15" s="7">
-        <v>3376695</v>
+        <v>3376694</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1429,7 +1423,7 @@
         <v>8716</v>
       </c>
       <c r="N15" s="7">
-        <v>7176055</v>
+        <v>7176054</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1443,7 +1437,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A_2_R3-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A_2_R3-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4751961E-F657-4A60-B11B-16AF1F18C5FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{65F39CEF-C133-4B9F-A03F-047FEC27E371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{052A0C2B-F6B8-4079-8A3E-94D94904FACA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{17C58468-158B-48FD-9572-5081DFE4878E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -705,7 +705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5CEEB75-50AB-4671-BEED-F0F0C5B5E772}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{724AD9F9-231C-4918-8ED0-FFE9397F6AEE}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P16A_2_R3-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A_2_R3-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65F39CEF-C133-4B9F-A03F-047FEC27E371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{88E6080C-1C7A-402E-9BA6-CE6B486A7179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{17C58468-158B-48FD-9572-5081DFE4878E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EC358A62-68A2-4096-A7F0-A3199D343D14}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="88">
   <si>
     <t>Población que ha consumido medicinas para el dolor en las dos últimas semanas en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -74,112 +74,118 @@
     <t>33,65%</t>
   </si>
   <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>62,12%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>46,91%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>66,35%</t>
+  </si>
+  <si>
+    <t>62,51%</t>
+  </si>
+  <si>
+    <t>70,07%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>53,09%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>48,84%</t>
+  </si>
+  <si>
     <t>29,81%</t>
   </si>
   <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>56,84%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>47,06%</t>
-  </si>
-  <si>
-    <t>51,89%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>66,35%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>62,79%</t>
+  </si>
+  <si>
+    <t>51,16%</t>
+  </si>
+  <si>
+    <t>66,66%</t>
   </si>
   <si>
     <t>70,19%</t>
   </si>
   <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>52,94%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
-  </si>
-  <si>
-    <t>62,79%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
-  </si>
-  <si>
-    <t>66,67%</t>
-  </si>
-  <si>
-    <t>63,09%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
+    <t>63,21%</t>
+  </si>
+  <si>
+    <t>72,58%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -188,109 +194,109 @@
     <t>19,12%</t>
   </si>
   <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
   </si>
   <si>
     <t>28,88%</t>
   </si>
   <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
   </si>
   <si>
     <t>24,15%</t>
   </si>
   <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
   </si>
   <si>
     <t>80,88%</t>
   </si>
   <si>
-    <t>77,46%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
   </si>
   <si>
     <t>71,12%</t>
   </si>
   <si>
-    <t>67,95%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
+    <t>67,9%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
   </si>
   <si>
     <t>75,85%</t>
   </si>
   <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
   </si>
   <si>
     <t>23,37%</t>
   </si>
   <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
   </si>
   <si>
     <t>40,56%</t>
   </si>
   <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>47,66%</t>
   </si>
   <si>
     <t>32,47%</t>
   </si>
   <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
   </si>
   <si>
     <t>76,63%</t>
   </si>
   <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>78,4%</t>
+    <t>74,97%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
   </si>
   <si>
     <t>59,44%</t>
   </si>
   <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>61,67%</t>
+    <t>52,34%</t>
+  </si>
+  <si>
+    <t>61,91%</t>
   </si>
   <si>
     <t>67,53%</t>
   </si>
   <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
+    <t>63,81%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -705,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{724AD9F9-231C-4918-8ED0-FFE9397F6AEE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C06FEDD3-F962-40F7-AC84-173985960B7E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1014,13 +1020,13 @@
         <v>1315110</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1035,28 +1041,28 @@
         <v>1683867</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>1812</v>
       </c>
       <c r="I8" s="7">
-        <v>1412567</v>
+        <v>1412566</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>3309</v>
@@ -1065,13 +1071,13 @@
         <v>3096433</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1098,7 +1104,7 @@
         <v>2921</v>
       </c>
       <c r="I9" s="7">
-        <v>2249521</v>
+        <v>2249520</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1127,7 +1133,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1139,13 +1145,13 @@
         <v>128699</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>299</v>
@@ -1154,13 +1160,13 @@
         <v>206199</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>423</v>
@@ -1169,13 +1175,13 @@
         <v>334898</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1190,13 +1196,13 @@
         <v>544340</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>705</v>
@@ -1205,13 +1211,13 @@
         <v>507687</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1262</v>
@@ -1220,13 +1226,13 @@
         <v>1052028</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1294,13 +1300,13 @@
         <v>789130</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>2287</v>
@@ -1309,13 +1315,13 @@
         <v>1540935</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>3159</v>
@@ -1324,13 +1330,13 @@
         <v>2330064</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1342,16 +1348,16 @@
         <v>2492</v>
       </c>
       <c r="D14" s="7">
-        <v>2587564</v>
+        <v>2587565</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>3065</v>
@@ -1360,28 +1366,28 @@
         <v>2258425</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>5557</v>
       </c>
       <c r="N14" s="7">
-        <v>4845990</v>
+        <v>4845991</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1393,7 +1399,7 @@
         <v>3364</v>
       </c>
       <c r="D15" s="7">
-        <v>3376694</v>
+        <v>3376695</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1423,7 +1429,7 @@
         <v>8716</v>
       </c>
       <c r="N15" s="7">
-        <v>7176054</v>
+        <v>7176055</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1437,7 +1443,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A_2_R3-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A_2_R3-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88E6080C-1C7A-402E-9BA6-CE6B486A7179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{02514EDD-7AB8-4252-9115-5DBFFA090536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EC358A62-68A2-4096-A7F0-A3199D343D14}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{BEFAB54E-F31A-4A66-9DA4-C6AB7C8917D1}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="86">
   <si>
     <t>Población que ha consumido medicinas para el dolor en las dos últimas semanas en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -71,61 +71,61 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
   </si>
   <si>
     <t>59,55%</t>
   </si>
   <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>62,12%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>62,15%</t>
+  </si>
+  <si>
+    <t>49,07%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>51,31%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>66,35%</t>
-  </si>
-  <si>
-    <t>62,51%</t>
-  </si>
-  <si>
-    <t>70,07%</t>
+    <t>66,3%</t>
+  </si>
+  <si>
+    <t>62,41%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
   </si>
   <si>
     <t>40,45%</t>
   </si>
   <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>53,09%</t>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>50,93%</t>
+  </si>
+  <si>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,169 +134,163 @@
     <t>Secundarios</t>
   </si>
   <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>62,79%</t>
-  </si>
-  <si>
-    <t>51,16%</t>
-  </si>
-  <si>
-    <t>66,66%</t>
-  </si>
-  <si>
-    <t>70,19%</t>
-  </si>
-  <si>
-    <t>63,21%</t>
-  </si>
-  <si>
-    <t>72,58%</t>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>58,57%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>67,85%</t>
+  </si>
+  <si>
+    <t>70,32%</t>
+  </si>
+  <si>
+    <t>60,28%</t>
+  </si>
+  <si>
+    <t>75,05%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>71,12%</t>
-  </si>
-  <si>
-    <t>67,9%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>47,66%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
-  </si>
-  <si>
-    <t>74,97%</t>
-  </si>
-  <si>
-    <t>78,24%</t>
-  </si>
-  <si>
-    <t>59,44%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
-  </si>
-  <si>
-    <t>61,91%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>63,81%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>53,75%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>75,5%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>58,43%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>62,88%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>71,11%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -711,7 +705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C06FEDD3-F962-40F7-AC84-173985960B7E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13AED3D7-2F73-4667-A6D5-14E958780E8D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -832,7 +826,7 @@
         <v>253</v>
       </c>
       <c r="D4" s="7">
-        <v>182275</v>
+        <v>173541</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -847,7 +841,7 @@
         <v>879</v>
       </c>
       <c r="I4" s="7">
-        <v>497782</v>
+        <v>449881</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -862,7 +856,7 @@
         <v>1132</v>
       </c>
       <c r="N4" s="7">
-        <v>680057</v>
+        <v>623422</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -883,7 +877,7 @@
         <v>438</v>
       </c>
       <c r="D5" s="7">
-        <v>359359</v>
+        <v>341397</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -898,7 +892,7 @@
         <v>548</v>
       </c>
       <c r="I5" s="7">
-        <v>338171</v>
+        <v>305627</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -913,7 +907,7 @@
         <v>986</v>
       </c>
       <c r="N5" s="7">
-        <v>697529</v>
+        <v>647024</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -934,7 +928,7 @@
         <v>691</v>
       </c>
       <c r="D6" s="7">
-        <v>541634</v>
+        <v>514938</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -949,7 +943,7 @@
         <v>1427</v>
       </c>
       <c r="I6" s="7">
-        <v>835953</v>
+        <v>755508</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -964,7 +958,7 @@
         <v>2118</v>
       </c>
       <c r="N6" s="7">
-        <v>1377586</v>
+        <v>1270446</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -987,7 +981,7 @@
         <v>495</v>
       </c>
       <c r="D7" s="7">
-        <v>478155</v>
+        <v>467018</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1002,7 +996,7 @@
         <v>1109</v>
       </c>
       <c r="I7" s="7">
-        <v>836954</v>
+        <v>876718</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1017,7 +1011,7 @@
         <v>1604</v>
       </c>
       <c r="N7" s="7">
-        <v>1315110</v>
+        <v>1343736</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1038,7 +1032,7 @@
         <v>1497</v>
       </c>
       <c r="D8" s="7">
-        <v>1683867</v>
+        <v>1823309</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1053,7 +1047,7 @@
         <v>1812</v>
       </c>
       <c r="I8" s="7">
-        <v>1412566</v>
+        <v>1361105</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1068,7 +1062,7 @@
         <v>3309</v>
       </c>
       <c r="N8" s="7">
-        <v>3096433</v>
+        <v>3184414</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1089,7 +1083,7 @@
         <v>1992</v>
       </c>
       <c r="D9" s="7">
-        <v>2162022</v>
+        <v>2290327</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1104,7 +1098,7 @@
         <v>2921</v>
       </c>
       <c r="I9" s="7">
-        <v>2249520</v>
+        <v>2237823</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1119,7 +1113,7 @@
         <v>4913</v>
       </c>
       <c r="N9" s="7">
-        <v>4411543</v>
+        <v>4528150</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1142,7 +1136,7 @@
         <v>124</v>
       </c>
       <c r="D10" s="7">
-        <v>128699</v>
+        <v>125156</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1157,7 +1151,7 @@
         <v>299</v>
       </c>
       <c r="I10" s="7">
-        <v>206199</v>
+        <v>192288</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1172,7 +1166,7 @@
         <v>423</v>
       </c>
       <c r="N10" s="7">
-        <v>334898</v>
+        <v>317444</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1193,7 +1187,7 @@
         <v>557</v>
       </c>
       <c r="D11" s="7">
-        <v>544340</v>
+        <v>521467</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1208,7 +1202,7 @@
         <v>705</v>
       </c>
       <c r="I11" s="7">
-        <v>507687</v>
+        <v>468175</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1223,7 +1217,7 @@
         <v>1262</v>
       </c>
       <c r="N11" s="7">
-        <v>1052028</v>
+        <v>989642</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1244,7 +1238,7 @@
         <v>681</v>
       </c>
       <c r="D12" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1259,7 +1253,7 @@
         <v>1004</v>
       </c>
       <c r="I12" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1274,7 +1268,7 @@
         <v>1685</v>
       </c>
       <c r="N12" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1297,7 +1291,7 @@
         <v>872</v>
       </c>
       <c r="D13" s="7">
-        <v>789130</v>
+        <v>765715</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>69</v>
@@ -1312,7 +1306,7 @@
         <v>2287</v>
       </c>
       <c r="I13" s="7">
-        <v>1540935</v>
+        <v>1518887</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>72</v>
@@ -1327,16 +1321,16 @@
         <v>3159</v>
       </c>
       <c r="N13" s="7">
-        <v>2330064</v>
+        <v>2284603</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1348,46 +1342,46 @@
         <v>2492</v>
       </c>
       <c r="D14" s="7">
-        <v>2587565</v>
+        <v>2686174</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>3065</v>
       </c>
       <c r="I14" s="7">
-        <v>2258425</v>
+        <v>2134907</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>5557</v>
       </c>
       <c r="N14" s="7">
-        <v>4845991</v>
+        <v>4821080</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1399,7 +1393,7 @@
         <v>3364</v>
       </c>
       <c r="D15" s="7">
-        <v>3376695</v>
+        <v>3451889</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1414,7 +1408,7 @@
         <v>5352</v>
       </c>
       <c r="I15" s="7">
-        <v>3799360</v>
+        <v>3653794</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1429,7 +1423,7 @@
         <v>8716</v>
       </c>
       <c r="N15" s="7">
-        <v>7176055</v>
+        <v>7105683</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1443,7 +1437,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
